--- a/src/obds_fhir_to_opal/output/study_protocol_c/data_dictionary_df.xlsx
+++ b/src/obds_fhir_to_opal/output/study_protocol_c/data_dictionary_df.xlsx
@@ -119,21 +119,19 @@
     <t>ICD10 GM diagnosis code</t>
   </si>
   <si>
-    <t>ICD10 GM diagnosis code mapped A = 1, B = 2, C = 3, D = 4,
-        e.g.: A01.9 = 101.9, C50.1 = 350.1 or D41.9 = 441.9</t>
-  </si>
-  <si>
-    <t>ICD10 GM diagnosis code grouped to parent code, e.g. A01.1
-        and A01.9 both belong to group 101 (remove decimal from icd10_mapped)</t>
-  </si>
-  <si>
-    <t>Entities of resulting ICD10 groups, see utils</t>
-  </si>
-  <si>
-    <t>Date of diagnosis</t>
-  </si>
-  <si>
-    <t>Year of diagnosis</t>
+    <t>ICD10 GM diagnosis code mapped A = 1, B = 2, C = 3, D = 4, e.g.: A01.9 = 101.9, C50.1 = 350.1 or D41.9 = 441.9</t>
+  </si>
+  <si>
+    <t>ICD10 GM diagnosis code grouped to parent code, e.g. A01.1 and A01.9 both belong to group 101 (remove decimal from icd10_mapped)</t>
+  </si>
+  <si>
+    <t>entities of resulting icd10 groups, see utils</t>
+  </si>
+  <si>
+    <t>date of diagnosis</t>
+  </si>
+  <si>
+    <t>Year of Diagnosis</t>
   </si>
   <si>
     <t>Birthdate</t>
@@ -142,25 +140,19 @@
     <t>Age at Diagnosis</t>
   </si>
   <si>
-    <t>Age groups mapped as follows: 0 (0-14), 1 (15-19),
-        2 (20-24), 3 (25-29), 4 (30-34), 5 (35-39), 6 (40-44), 7 (45-49), 8 (50-54),
-        9 (55-59), 10 (60-64), 11 (65-69), 12 (70-74), 13 (75-79), 14 (80-84), and
-        15 (85+)</t>
-  </si>
-  <si>
-    <t>Age groups mapped as follows: 0 (0-10), 1 (11-20),
-        2 (21-30), 3 (31-40), 4 (41-50), 5 (51-60), 6 (61-70), 7 (71-80), 8 (81-90),
-        and 9 (90+).</t>
+    <t>age groups mapped as follows: 0 (0-14), 1 (15-19), 2 (20-24), 3 (25-29), 4 (30-34), 5 (35-39), 6 (40-44), 7 (45-49), 8 (50-54), 9 (55-59), 10 (60-64), 11 (65-69), 12 (70-74), 13 (75-79), 14 (80-84), and 15 (85+)</t>
+  </si>
+  <si>
+    <t>age groups mapped as follows: 0 (0-10), 1 (11-20), 2 (21-30), 3 (31-40), 4 (41-50), 5 (51-60), 6 (61-70), 7 (71-80), 8 (81-90), and 9 (90+).</t>
   </si>
   <si>
     <t>Gender - male, female, other/diverse</t>
   </si>
   <si>
-    <t>Gender mapped: 0 = None, 1 = female, 2 = male,
-        3 = other/diverse</t>
-  </si>
-  <si>
-    <t>Postal code</t>
+    <t>Gender mapped: 0 = None, 1 = female, 2 = male, 3 = other/diverse</t>
+  </si>
+  <si>
+    <t>postal code</t>
   </si>
   <si>
     <t>variable</t>
